--- a/문서/개발 일정표.xlsx
+++ b/문서/개발 일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\!2021Maxid\Full\2021_2\NGP\텀프\Play\NetGameProg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2021 2학기\Network team\NetGameProg\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88741B9-B596-47EA-958B-D02E8C2B528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA300AD-895B-475A-B1B9-041C0F914084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2A1E1F43-1FEF-427A-80B0-54F7E8D67198}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A1E1F43-1FEF-427A-80B0-54F7E8D67198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>어수혁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <t>수</t>
   </si>
   <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목</t>
   </si>
   <si>
@@ -93,18 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 수정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 수정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 수정3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 네트워크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,22 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NetworkManager sendData1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetworkManager sendData2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetworkManager recvData1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetworkManager recvData2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NetworkManager 클래스 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MainStream initiate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playerSelectStart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,22 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recvData1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recvData2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendData1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendData2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내부 1차 릴리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NetworkManager sendData3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetworkManager recvData3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>네트워크 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,47 +145,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectScene에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainScene에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingameScene에 추가1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingameScene에 추가2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingameScene에 추가3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLogic prototype1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLogic prototype2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLogic 마무리 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLogic 마무리 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkManager sendData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkManager CreateClientToServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkManager recvn()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkManager setData()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkManager recvData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainStream 생성자 소멸자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitForClientToConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameLogic TimeElapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameLogic CoinUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNetworkManager recvn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNetworkManager setData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerNetworkManager sendData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌더링 방식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 수 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 연결 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택창 네트워크 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택창 ui 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임 네트워크 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리 판정 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,9 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,13 +323,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C27C61B-BEF6-411F-B532-F016C7A98D74}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -700,460 +679,408 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44503</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>44507</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44504</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
+        <v>44508</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44505</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>44509</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44506</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>44510</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>44511</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44508</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>44512</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44509</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>44513</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44510</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>3</v>
+        <v>44514</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44511</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>44515</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44512</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>44516</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44513</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>44517</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44514</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>44518</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>44519</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44516</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>44520</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44517</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>3</v>
+        <v>44521</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44518</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
+        <v>44522</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44519</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>44523</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44520</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>44524</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44521</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>44525</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44522</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>44526</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44523</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>44527</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44524</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>44528</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>44529</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>6</v>
-      </c>
+        <v>44530</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44527</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+        <v>44531</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44528</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+        <v>44532</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44529</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+        <v>44533</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44530</v>
-      </c>
-      <c r="B30" s="11" t="s">
+        <v>44534</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="10"/>
       <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>3</v>
-      </c>
+        <v>44535</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>44533</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>44534</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>44535</v>
-      </c>
-      <c r="B35" s="11" t="s">
+        <v>44536</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44536</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/개발 일정표.xlsx
+++ b/문서/개발 일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2021 2학기\Network team\NetGameProg\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\!2021Maxid\Full\2021_2\NGP\텀프\Play\NetGameProg\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA300AD-895B-475A-B1B9-041C0F914084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471FEBFA-4F88-4471-9432-C2733C18DAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A1E1F43-1FEF-427A-80B0-54F7E8D67198}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2A1E1F43-1FEF-427A-80B0-54F7E8D67198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>어수혁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>렌더링 방식 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 수 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 연결 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,11 +209,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인 게임 네트워크 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승리 판정 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 렌더링 방식 변경 (2p -&gt; 1p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임 네트워크 - 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임 네트워크 - 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임 네트워크 - 코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 수 변경 - 타일 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 수 변경 - 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +348,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +670,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -770,8 +785,8 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -782,6 +797,9 @@
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -790,9 +808,6 @@
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
@@ -832,8 +847,8 @@
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>32</v>
@@ -847,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -860,7 +875,9 @@
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -880,9 +897,6 @@
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="7" t="s">
         <v>34</v>
       </c>
@@ -898,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
@@ -911,6 +925,9 @@
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,6 +937,9 @@
       <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>41</v>
@@ -932,9 +952,6 @@
       <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
@@ -949,6 +966,9 @@
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="3" t="s">
         <v>37</v>
@@ -961,6 +981,9 @@
       <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="C23" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>38</v>
       </c>
@@ -988,8 +1011,8 @@
       <c r="C25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -999,8 +1022,8 @@
         <v>9</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1038,11 +1061,11 @@
       <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1051,11 +1074,11 @@
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1066,9 +1089,9 @@
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
